--- a/data questions.xlsx
+++ b/data questions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EAC0DA-2D3F-F242-88F4-EE5F6FFE12DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A63E052-F215-E44A-8A2F-B101FFBE01A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="27300" windowHeight="16120" xr2:uid="{14DA460A-B3D7-8841-8C82-6DBA7B0CC965}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22720" windowHeight="16140" xr2:uid="{14DA460A-B3D7-8841-8C82-6DBA7B0CC965}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateCount="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>Concentrated Solar Power</t>
   </si>
@@ -166,6 +166,30 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>switch to OWD</t>
+  </si>
+  <si>
+    <t>omit nitrogen fertilizer, all ammonia, then aggregate, get cameron notes on data processing</t>
+  </si>
+  <si>
+    <t>row 821, call it ethyl alcohol, merge with PCDB - JG looks for US?</t>
+  </si>
+  <si>
+    <t>try to look for another source?</t>
+  </si>
+  <si>
+    <t>all good, jenna sending me underlying data and cleaning</t>
+  </si>
+  <si>
+    <t>ask greg how to cite</t>
+  </si>
+  <si>
+    <t>use Resistant Cotton Pct - JG will send source</t>
   </si>
 </sst>
 </file>
@@ -556,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F16C597-BC08-384F-832E-F93F3B103F6C}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,17 +594,17 @@
     <col min="4" max="4" width="48.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -596,8 +620,11 @@
       <c r="E3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -613,8 +640,11 @@
       <c r="E4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -627,8 +657,11 @@
       <c r="E5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -641,8 +674,11 @@
       <c r="E6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -655,8 +691,11 @@
       <c r="E7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -672,8 +711,11 @@
       <c r="E8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -690,7 +732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -703,8 +745,11 @@
       <c r="E10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -717,8 +762,11 @@
       <c r="E11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,8 +779,11 @@
       <c r="E12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -748,8 +799,11 @@
       <c r="E13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -765,8 +819,11 @@
       <c r="E14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -782,8 +839,11 @@
       <c r="E15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -799,8 +859,11 @@
       <c r="E16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,6 +878,9 @@
       </c>
       <c r="E17" t="s">
         <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data questions.xlsx
+++ b/data questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A63E052-F215-E44A-8A2F-B101FFBE01A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A0A345-1D94-F845-B601-D3BD7746F229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22720" windowHeight="16140" xr2:uid="{14DA460A-B3D7-8841-8C82-6DBA7B0CC965}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{14DA460A-B3D7-8841-8C82-6DBA7B0CC965}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>Concentrated Solar Power</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>use Resistant Cotton Pct - JG will send source</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/space-exploration-satellites</t>
   </si>
 </sst>
 </file>
@@ -580,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F16C597-BC08-384F-832E-F93F3B103F6C}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,17 +597,17 @@
     <col min="4" max="4" width="48.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -624,7 +627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -644,7 +647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -660,8 +663,11 @@
       <c r="F5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -678,7 +684,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -695,7 +701,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -715,7 +721,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -732,7 +738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -749,7 +755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -766,7 +772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -803,7 +809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -823,7 +829,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -843,7 +849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>

--- a/data questions.xlsx
+++ b/data questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A0A345-1D94-F845-B601-D3BD7746F229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD9A763-2CE8-AB4B-B53E-CE5EC5C8D701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{14DA460A-B3D7-8841-8C82-6DBA7B0CC965}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>Concentrated Solar Power</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>https://ourworldindata.org/space-exploration-satellites</t>
+  </si>
+  <si>
+    <t>resolved</t>
   </si>
 </sst>
 </file>
@@ -221,12 +224,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -241,13 +250,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +596,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,49 +611,52 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -721,7 +734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -738,20 +751,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>48</v>
       </c>
     </row>
